--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T14:50:02+00:00</t>
+    <t>2023-08-02T15:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T15:50:27+00:00</t>
+    <t>2023-08-02T16:09:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:09:38+00:00</t>
+    <t>2023-08-03T07:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T07:00:46+00:00</t>
+    <t>2023-08-03T07:28:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T07:28:23+00:00</t>
+    <t>2023-08-03T07:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T07:38:46+00:00</t>
+    <t>2023-08-03T07:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T07:49:23+00:00</t>
+    <t>2023-08-03T09:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T09:48:37+00:00</t>
+    <t>2023-08-03T14:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T14:29:30+00:00</t>
+    <t>2023-08-03T14:36:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T14:36:54+00:00</t>
+    <t>2023-08-03T14:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T14:42:19+00:00</t>
+    <t>2023-08-03T14:47:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T14:47:06+00:00</t>
+    <t>2023-08-03T14:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T14:47:55+00:00</t>
+    <t>2023-08-03T14:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T14:49:53+00:00</t>
+    <t>2023-08-03T15:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:00:24+00:00</t>
+    <t>2023-08-03T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:01:56+00:00</t>
+    <t>2023-08-03T15:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:16:41+00:00</t>
+    <t>2023-08-03T15:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:20:37+00:00</t>
+    <t>2023-08-03T15:21:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:21:18+00:00</t>
+    <t>2023-08-03T15:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:29:05+00:00</t>
+    <t>2023-08-03T15:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:36:45+00:00</t>
+    <t>2023-08-03T15:37:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T15:37:59+00:00</t>
+    <t>2023-08-03T16:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:25:31+00:00</t>
+    <t>2023-08-03T16:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:28:06+00:00</t>
+    <t>2023-08-04T08:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T08:46:57+00:00</t>
+    <t>2023-08-04T08:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T08:47:33+00:00</t>
+    <t>2023-08-04T08:51:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T08:51:14+00:00</t>
+    <t>2023-08-04T09:20:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T09:20:58+00:00</t>
+    <t>2023-08-04T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T09:56:14+00:00</t>
+    <t>2023-08-04T10:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T10:44:08+00:00</t>
+    <t>2023-08-04T13:09:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T13:09:08+00:00</t>
+    <t>2023-08-04T13:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T13:08:43+00:00</t>
+    <t>2023-08-04T13:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T13:11:30+00:00</t>
+    <t>2023-08-04T13:44:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T13:44:23+00:00</t>
+    <t>2023-08-04T13:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T13:47:04+00:00</t>
+    <t>2023-08-04T13:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
+++ b/ig/nr-add-resources/StructureDefinition-gap-bundle-reponse-demande-consult-rdv.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T13:52:34+00:00</t>
+    <t>2023-08-04T13:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
